--- a/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.06</v>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2397,13 +2440,917 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5239</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5239</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4216</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0097</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8737</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8737</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8737</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6102</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5106</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>15.26</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3281,7 +3282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3292,17 +3293,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3312,14 +3333,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.35</v>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3328,14 +3371,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.06</v>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3344,13 +3409,1047 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6451</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3939</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3866</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2800</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2800</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2800</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8960</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8960</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7655</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7655</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7655</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5304</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4641</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>23</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>15.26</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4364,7 +4365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4375,17 +4376,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4395,14 +4416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.25</v>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4411,14 +4454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.35</v>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4427,14 +4492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.06</v>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4443,13 +4530,873 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7365</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7365</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7365</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6912</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6912</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.26</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>12.05</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>24.25</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>23.35</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>18.06</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.26</v>
       </c>
     </row>
@@ -566,6 +583,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3132</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）美元现钞A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7748</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6776</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6776</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001668</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4655</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014978</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159632</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013329</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实全球价值股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013328</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实全球价值股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159612</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015203</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）D</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015202</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1495,7 +2708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2577,7 +3790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3507,7 +4720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4475,7 +5688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOGL-Alphabet公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>12.67</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>12.05</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>24.25</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>23.35</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>18.06</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.26</v>
       </c>
     </row>
@@ -583,6 +600,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8677</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4884</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5682</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4949</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4949</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4612</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016532</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）A人民币</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016533</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016534</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）A美元现汇</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016535</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016055</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）A人民币</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016057</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016056</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）A美元现汇</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016058</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159612</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159655</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1778,7 +2953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2708,7 +3883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3790,7 +4965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4720,7 +5895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5688,7 +6863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
